--- a/CentreAppBlazor/Shared/db/Invoice.xlsx
+++ b/CentreAppBlazor/Shared/db/Invoice.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CDC2A-5C05-4C8F-A623-742A9D2ECC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="4032" yWindow="2196" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -16,10 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
-  <si>
-    <t>Имя</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Количество</t>
   </si>
@@ -46,13 +44,34 @@
   </si>
   <si>
     <t xml:space="preserve">от </t>
+  </si>
+  <si>
+    <t>Наименование, сорт, размер</t>
+  </si>
+  <si>
+    <t>Предприятие, организация</t>
+  </si>
+  <si>
+    <t>Оптовый мебельный склад</t>
+  </si>
+  <si>
+    <t>Склад</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Основной склад -1 </t>
+  </si>
+  <si>
+    <t>Подразделение</t>
+  </si>
+  <si>
+    <t>Основное подразделение</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -62,6 +81,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="1"/>
       <name val="Times New Roman"/>
       <family val="1"/>
@@ -102,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -115,9 +149,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -125,14 +166,17 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -170,9 +214,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -205,9 +249,26 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -240,9 +301,26 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -415,89 +493,126 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="45.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="14.7109375" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="45.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="14.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="16.88671875" style="1" customWidth="1"/>
     <col min="6" max="6" width="17" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="8"/>
+      <c r="E1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="7"/>
+      <c r="C2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="6"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3"/>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3"/>
+      <c r="F8" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="3"/>
-      <c r="B5" s="3"/>
-      <c r="C5" s="3"/>
-      <c r="D5" s="3"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="B11" s="5"/>
+      <c r="D11" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="D8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A8:B8"/>
-    <mergeCell ref="D8:F8"/>
+  <mergeCells count="10">
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="A5:F5"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="A2:B2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
@@ -505,24 +620,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CentreAppBlazor/Shared/db/Invoice.xlsx
+++ b/CentreAppBlazor/Shared/db/Invoice.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25225"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25330"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E5CDC2A-5C05-4C8F-A623-742A9D2ECC5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F5BB24F4-BA9B-41BB-9A7E-42BD1FCF0195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4032" yWindow="2196" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" refMode="R1C1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Количество</t>
   </si>
@@ -52,19 +52,25 @@
     <t>Предприятие, организация</t>
   </si>
   <si>
-    <t>Оптовый мебельный склад</t>
-  </si>
-  <si>
     <t>Склад</t>
   </si>
   <si>
-    <t xml:space="preserve">Основной склад -1 </t>
-  </si>
-  <si>
     <t>Подразделение</t>
   </si>
   <si>
     <t>Основное подразделение</t>
+  </si>
+  <si>
+    <t>Основание: Без договора</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Поставщик: </t>
+  </si>
+  <si>
+    <t>Ахрор склад</t>
+  </si>
+  <si>
+    <t>Склад №1</t>
   </si>
 </sst>
 </file>
@@ -136,7 +142,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -144,17 +150,23 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -494,10 +506,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -517,102 +529,124 @@
       </c>
       <c r="B1" s="8"/>
       <c r="C1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D1" s="8"/>
       <c r="E1" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="8"/>
+    </row>
+    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="9"/>
+      <c r="C2" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="7"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
+      <c r="E5" s="7"/>
+      <c r="F5" s="7"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="10"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="F1" s="8"/>
-    </row>
-    <row r="2" spans="1:6" ht="14.4" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="4"/>
-      <c r="E2" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-    </row>
-    <row r="4" spans="1:6" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="5"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B7" s="10"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B7" s="2" t="s">
+      <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E7" s="2" t="s">
+      <c r="E9" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F9" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B11" s="5"/>
-      <c r="D11" s="5" t="s">
+      <c r="B13" s="7"/>
+      <c r="D13" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="12">
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="A13:B13"/>
+    <mergeCell ref="D13:F13"/>
     <mergeCell ref="C1:D1"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E1:F1"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A7:B7"/>
+    <mergeCell ref="A6:B6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
